--- a/src/main/resources/template/excel/export/beyMonthDetailExportTemplate.xlsx
+++ b/src/main/resources/template/excel/export/beyMonthDetailExportTemplate.xlsx
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>门店月盈亏平衡明细分析</t>
     <phoneticPr fontId="7" type="noConversion"/>
@@ -117,11 +117,15 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>${obj.total}</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>合计：</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>${obj.amount}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>${obj.amount}</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -640,7 +644,7 @@
   <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -733,12 +737,12 @@
     </row>
     <row r="4" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" s="19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" s="20"/>
       <c r="C4" s="21"/>
       <c r="D4" s="13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E4" s="6"/>
     </row>
@@ -749,7 +753,7 @@
       <c r="B5" s="17"/>
       <c r="C5" s="18"/>
       <c r="D5" s="13" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E5" s="11"/>
     </row>

--- a/src/main/resources/template/excel/export/beyMonthDetailExportTemplate.xlsx
+++ b/src/main/resources/template/excel/export/beyMonthDetailExportTemplate.xlsx
@@ -34,7 +34,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:area(lastCell="E5")</t>
+          <t>jx:area(lastCell="E7")</t>
         </r>
       </text>
     </comment>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>门店月盈亏平衡明细分析</t>
     <phoneticPr fontId="7" type="noConversion"/>
@@ -125,7 +125,23 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
+    <t>门店商品销售毛利率</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>门店月盈亏平衡点</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
     <t>${obj.amount}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>${profit}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>${balance}</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -282,7 +298,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -336,6 +352,13 @@
     </xf>
     <xf numFmtId="176" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -641,10 +664,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P5"/>
+  <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -753,19 +776,43 @@
       <c r="B5" s="17"/>
       <c r="C5" s="18"/>
       <c r="D5" s="13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E5" s="11"/>
     </row>
+    <row r="6" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+      <c r="A6" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="22"/>
+    </row>
+    <row r="7" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+      <c r="A7" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="22"/>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="5">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A5:C5"/>
     <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A7:C7"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C3 C6:C1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C3 C8:C1048576"/>
   </dataValidations>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
